--- a/ZTDYNPRO_ATTR.XLSX
+++ b/ZTDYNPRO_ATTR.XLSX
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7406616E-2D49-4ADA-91D8-6BEF96879C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21855" windowHeight="14940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="97">
   <si>
     <t>ZAESOP_TSCREEN_01</t>
   </si>
@@ -272,6 +263,15 @@
   </si>
   <si>
     <t>PO_HISTORY-EBELP</t>
+  </si>
+  <si>
+    <t>ZAESOP_TSCREEN_15</t>
+  </si>
+  <si>
+    <t>ZAESOP_TSCREEN_16</t>
+  </si>
+  <si>
+    <t>TC_9002_01_MAKTX</t>
   </si>
   <si>
     <t>过程中的调用程序</t>
@@ -307,14 +307,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +331,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,8 +371,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -364,368 +387,69 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="19" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="14" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="5" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="12" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="29" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="4" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="7" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="6" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="4" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -757,7 +481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -789,7 +513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -821,7 +545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -853,7 +577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -885,7 +609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -917,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -949,7 +673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -981,7 +705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1013,7 +737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1030,7 +754,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>2</v>
@@ -1045,7 +769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1077,7 +801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1109,7 +833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1141,7 +865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1158,7 +882,7 @@
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
         <v>2</v>
@@ -1173,7 +897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1205,7 +929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1237,7 +961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1269,7 +993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1301,7 +1025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1333,7 +1057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1365,7 +1089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1397,7 +1121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1429,7 +1153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1461,7 +1185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1493,7 +1217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1525,7 +1249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1557,7 +1281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1589,7 +1313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1621,7 +1345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1653,7 +1377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1685,7 +1409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1717,7 +1441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1749,7 +1473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -1781,7 +1505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -1813,7 +1537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1845,7 +1569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1877,7 +1601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -1909,7 +1633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -1941,7 +1665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1973,7 +1697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -2005,7 +1729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -2037,7 +1761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -2069,7 +1793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2101,7 +1825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -2133,7 +1857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -2165,7 +1889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -2197,7 +1921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -2229,7 +1953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -2261,7 +1985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -2293,7 +2017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -2325,7 +2049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -2357,7 +2081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -2389,7 +2113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -2421,7 +2145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -2453,7 +2177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -2485,7 +2209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -2517,7 +2241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -2549,7 +2273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -2581,7 +2305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -2613,7 +2337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -2645,7 +2369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -2677,7 +2401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -2709,7 +2433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -2741,7 +2465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -2773,7 +2497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -2805,7 +2529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -2837,7 +2561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>60</v>
       </c>
@@ -2869,7 +2593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>60</v>
       </c>
@@ -2901,7 +2625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -2933,7 +2657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -2965,7 +2689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>60</v>
       </c>
@@ -2997,7 +2721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>60</v>
       </c>
@@ -3029,7 +2753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -3061,7 +2785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>60</v>
       </c>
@@ -3093,7 +2817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -3125,7 +2849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>60</v>
       </c>
@@ -3157,7 +2881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>65</v>
       </c>
@@ -3189,7 +2913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>65</v>
       </c>
@@ -3221,7 +2945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>65</v>
       </c>
@@ -3253,7 +2977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>65</v>
       </c>
@@ -3285,7 +3009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>65</v>
       </c>
@@ -3317,7 +3041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>65</v>
       </c>
@@ -3349,7 +3073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>65</v>
       </c>
@@ -3381,7 +3105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>66</v>
       </c>
@@ -3413,7 +3137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>66</v>
       </c>
@@ -3445,7 +3169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>66</v>
       </c>
@@ -3477,7 +3201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>66</v>
       </c>
@@ -3509,7 +3233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>66</v>
       </c>
@@ -3541,7 +3265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>66</v>
       </c>
@@ -3573,7 +3297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>66</v>
       </c>
@@ -3605,7 +3329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>66</v>
       </c>
@@ -3637,7 +3361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>69</v>
       </c>
@@ -3669,7 +3393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>69</v>
       </c>
@@ -3701,7 +3425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>69</v>
       </c>
@@ -3733,7 +3457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -3765,7 +3489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>69</v>
       </c>
@@ -3797,7 +3521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>69</v>
       </c>
@@ -3829,7 +3553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>69</v>
       </c>
@@ -3861,7 +3585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>69</v>
       </c>
@@ -3893,7 +3617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>69</v>
       </c>
@@ -3925,7 +3649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>69</v>
       </c>
@@ -3957,7 +3681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>69</v>
       </c>
@@ -3989,7 +3713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>69</v>
       </c>
@@ -4021,7 +3745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>69</v>
       </c>
@@ -4053,7 +3777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>69</v>
       </c>
@@ -4085,7 +3809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>69</v>
       </c>
@@ -4117,7 +3841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
         <v>69</v>
       </c>
@@ -4149,7 +3873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
         <v>69</v>
       </c>
@@ -4178,6 +3902,550 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
+        <v>84</v>
+      </c>
+      <c r="B110" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" t="s">
+        <v>4</v>
+      </c>
+      <c r="G110" t="s">
+        <v>2</v>
+      </c>
+      <c r="H110" t="s">
+        <v>2</v>
+      </c>
+      <c r="I110" t="s">
+        <v>2</v>
+      </c>
+      <c r="J110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
+        <v>84</v>
+      </c>
+      <c r="B111" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>19</v>
+      </c>
+      <c r="F111" t="s">
+        <v>4</v>
+      </c>
+      <c r="G111" t="s">
+        <v>2</v>
+      </c>
+      <c r="H111" t="s">
+        <v>2</v>
+      </c>
+      <c r="I111" t="s">
+        <v>2</v>
+      </c>
+      <c r="J111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" t="s">
+        <v>84</v>
+      </c>
+      <c r="B112" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>68</v>
+      </c>
+      <c r="E112" t="s">
+        <v>41</v>
+      </c>
+      <c r="F112" t="s">
+        <v>4</v>
+      </c>
+      <c r="G112" t="s">
+        <v>2</v>
+      </c>
+      <c r="H112" t="s">
+        <v>2</v>
+      </c>
+      <c r="I112" t="s">
+        <v>2</v>
+      </c>
+      <c r="J112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" t="s">
+        <v>84</v>
+      </c>
+      <c r="B113" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>68</v>
+      </c>
+      <c r="E113" t="s">
+        <v>58</v>
+      </c>
+      <c r="F113" t="s">
+        <v>4</v>
+      </c>
+      <c r="G113" t="s">
+        <v>2</v>
+      </c>
+      <c r="H113" t="s">
+        <v>2</v>
+      </c>
+      <c r="I113" t="s">
+        <v>2</v>
+      </c>
+      <c r="J113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" t="s">
+        <v>84</v>
+      </c>
+      <c r="B114" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>74</v>
+      </c>
+      <c r="E114" t="s">
+        <v>75</v>
+      </c>
+      <c r="F114" t="s">
+        <v>4</v>
+      </c>
+      <c r="G114" t="s">
+        <v>2</v>
+      </c>
+      <c r="H114" t="s">
+        <v>2</v>
+      </c>
+      <c r="I114" t="s">
+        <v>2</v>
+      </c>
+      <c r="J114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" t="s">
+        <v>84</v>
+      </c>
+      <c r="B115" t="s">
+        <v>33</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>74</v>
+      </c>
+      <c r="E115" t="s">
+        <v>76</v>
+      </c>
+      <c r="F115" t="s">
+        <v>4</v>
+      </c>
+      <c r="G115" t="s">
+        <v>2</v>
+      </c>
+      <c r="H115" t="s">
+        <v>2</v>
+      </c>
+      <c r="I115" t="s">
+        <v>2</v>
+      </c>
+      <c r="J115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" t="s">
+        <v>84</v>
+      </c>
+      <c r="B116" t="s">
+        <v>35</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>81</v>
+      </c>
+      <c r="E116" t="s">
+        <v>82</v>
+      </c>
+      <c r="F116" t="s">
+        <v>4</v>
+      </c>
+      <c r="G116" t="s">
+        <v>2</v>
+      </c>
+      <c r="H116" t="s">
+        <v>2</v>
+      </c>
+      <c r="I116" t="s">
+        <v>2</v>
+      </c>
+      <c r="J116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" t="s">
+        <v>84</v>
+      </c>
+      <c r="B117" t="s">
+        <v>35</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>81</v>
+      </c>
+      <c r="E117" t="s">
+        <v>83</v>
+      </c>
+      <c r="F117" t="s">
+        <v>4</v>
+      </c>
+      <c r="G117" t="s">
+        <v>2</v>
+      </c>
+      <c r="H117" t="s">
+        <v>2</v>
+      </c>
+      <c r="I117" t="s">
+        <v>2</v>
+      </c>
+      <c r="J117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" t="s">
+        <v>85</v>
+      </c>
+      <c r="B118" t="s">
+        <v>26</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>24</v>
+      </c>
+      <c r="F118" t="s">
+        <v>4</v>
+      </c>
+      <c r="G118" t="s">
+        <v>2</v>
+      </c>
+      <c r="H118" t="s">
+        <v>2</v>
+      </c>
+      <c r="I118" t="s">
+        <v>2</v>
+      </c>
+      <c r="J118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
+        <v>85</v>
+      </c>
+      <c r="B119" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" t="s">
+        <v>4</v>
+      </c>
+      <c r="G119" t="s">
+        <v>2</v>
+      </c>
+      <c r="H119" t="s">
+        <v>2</v>
+      </c>
+      <c r="I119" t="s">
+        <v>2</v>
+      </c>
+      <c r="J119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
+        <v>85</v>
+      </c>
+      <c r="B120" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>68</v>
+      </c>
+      <c r="E120" t="s">
+        <v>41</v>
+      </c>
+      <c r="F120" t="s">
+        <v>4</v>
+      </c>
+      <c r="G120" t="s">
+        <v>2</v>
+      </c>
+      <c r="H120" t="s">
+        <v>2</v>
+      </c>
+      <c r="I120" t="s">
+        <v>2</v>
+      </c>
+      <c r="J120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" t="s">
+        <v>85</v>
+      </c>
+      <c r="B121" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>68</v>
+      </c>
+      <c r="E121" t="s">
+        <v>58</v>
+      </c>
+      <c r="F121" t="s">
+        <v>4</v>
+      </c>
+      <c r="G121" t="s">
+        <v>2</v>
+      </c>
+      <c r="H121" t="s">
+        <v>2</v>
+      </c>
+      <c r="I121" t="s">
+        <v>2</v>
+      </c>
+      <c r="J121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" t="s">
+        <v>85</v>
+      </c>
+      <c r="B122" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>68</v>
+      </c>
+      <c r="E122" t="s">
+        <v>86</v>
+      </c>
+      <c r="F122" t="s">
+        <v>4</v>
+      </c>
+      <c r="G122" t="s">
+        <v>2</v>
+      </c>
+      <c r="H122" t="s">
+        <v>5</v>
+      </c>
+      <c r="I122" t="s">
+        <v>2</v>
+      </c>
+      <c r="J122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" t="s">
+        <v>85</v>
+      </c>
+      <c r="B123" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>74</v>
+      </c>
+      <c r="E123" t="s">
+        <v>75</v>
+      </c>
+      <c r="F123" t="s">
+        <v>4</v>
+      </c>
+      <c r="G123" t="s">
+        <v>2</v>
+      </c>
+      <c r="H123" t="s">
+        <v>2</v>
+      </c>
+      <c r="I123" t="s">
+        <v>2</v>
+      </c>
+      <c r="J123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
+        <v>85</v>
+      </c>
+      <c r="B124" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>74</v>
+      </c>
+      <c r="E124" t="s">
+        <v>76</v>
+      </c>
+      <c r="F124" t="s">
+        <v>4</v>
+      </c>
+      <c r="G124" t="s">
+        <v>2</v>
+      </c>
+      <c r="H124" t="s">
+        <v>2</v>
+      </c>
+      <c r="I124" t="s">
+        <v>2</v>
+      </c>
+      <c r="J124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
+        <v>85</v>
+      </c>
+      <c r="B125" t="s">
+        <v>35</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>81</v>
+      </c>
+      <c r="E125" t="s">
+        <v>82</v>
+      </c>
+      <c r="F125" t="s">
+        <v>4</v>
+      </c>
+      <c r="G125" t="s">
+        <v>2</v>
+      </c>
+      <c r="H125" t="s">
+        <v>2</v>
+      </c>
+      <c r="I125" t="s">
+        <v>2</v>
+      </c>
+      <c r="J125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
+        <v>85</v>
+      </c>
+      <c r="B126" t="s">
+        <v>35</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s">
+        <v>81</v>
+      </c>
+      <c r="E126" t="s">
+        <v>83</v>
+      </c>
+      <c r="F126" t="s">
+        <v>4</v>
+      </c>
+      <c r="G126" t="s">
+        <v>2</v>
+      </c>
+      <c r="H126" t="s">
+        <v>2</v>
+      </c>
+      <c r="I126" t="s">
+        <v>2</v>
+      </c>
+      <c r="J126" t="s">
         <v>5</v>
       </c>
     </row>
